--- a/03Excel_FuncionesAvanzadas/03FuncionesVarias.xlsx
+++ b/03Excel_FuncionesAvanzadas/03FuncionesVarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Excel-Career\03Excel_FuncionesAvanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DDCAF8-5BB7-4C28-AD6B-A7020AC13F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432F41AB-26B3-4DB5-A063-7A66AB10D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{B3EA8307-1D62-40BF-8A65-29F84132307C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B3EA8307-1D62-40BF-8A65-29F84132307C}"/>
   </bookViews>
   <sheets>
     <sheet name="Jerarquía" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Equipo baloncesto</t>
-  </si>
-  <si>
-    <t>JERARQUÍA: Utilizada para saber en que posición se encuentra un valor en una lista</t>
-  </si>
-  <si>
-    <t>FORMULATEXTO: Muestra la fórmula de un resultado</t>
   </si>
   <si>
     <t>www.google.es</t>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>Millas</t>
-  </si>
-  <si>
-    <t>CONVERTIR: Utilizada para convertir todas las unidades posibles en otras</t>
   </si>
 </sst>
 </file>
@@ -124,9 +115,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -134,6 +122,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -449,25 +440,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9DED38-478C-4855-9A21-EF58C405297E}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A16:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.98</v>
       </c>
       <c r="C2">
@@ -480,10 +471,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2.0499999999999998</v>
       </c>
       <c r="C3">
@@ -496,10 +487,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2.1</v>
       </c>
       <c r="C4">
@@ -512,10 +503,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5">
@@ -528,10 +519,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1.85</v>
       </c>
       <c r="C6">
@@ -544,10 +535,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.9</v>
       </c>
       <c r="C7">
@@ -560,10 +551,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1.96</v>
       </c>
       <c r="C8">
@@ -576,10 +567,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.99</v>
       </c>
       <c r="C9">
@@ -592,10 +583,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2.0699999999999998</v>
       </c>
       <c r="C10">
@@ -608,10 +599,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1.94</v>
       </c>
       <c r="C11">
@@ -624,10 +615,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.97</v>
       </c>
       <c r="C12">
@@ -640,10 +631,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1.85</v>
       </c>
       <c r="C13">
@@ -653,21 +644,6 @@
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=JERARQUIA.EQV(B13;$B$2:$B$13)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -683,14 +659,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C7156F-EFC8-4BF8-BFFA-21409133EAC7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="3">
         <v>45231</v>
       </c>
       <c r="B1">
@@ -703,7 +679,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>45232</v>
       </c>
       <c r="B2">
@@ -716,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45233</v>
       </c>
       <c r="B3">
@@ -729,7 +705,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>45234</v>
       </c>
       <c r="B4">
@@ -742,7 +718,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45235</v>
       </c>
       <c r="B5">
@@ -755,7 +731,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45236</v>
       </c>
       <c r="B6">
@@ -768,7 +744,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>45237</v>
       </c>
       <c r="B7">
@@ -781,7 +757,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>45238</v>
       </c>
       <c r="B8">
@@ -794,7 +770,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>45239</v>
       </c>
       <c r="B9">
@@ -807,7 +783,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>45240</v>
       </c>
       <c r="B10">
@@ -820,7 +796,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45241</v>
       </c>
       <c r="B11">
@@ -833,7 +809,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>45242</v>
       </c>
       <c r="B12">
@@ -846,7 +822,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>45243</v>
       </c>
       <c r="B13">
@@ -859,7 +835,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>45244</v>
       </c>
       <c r="B14">
@@ -872,7 +848,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>45245</v>
       </c>
       <c r="B15">
@@ -903,10 +879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="str">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="str">
         <f>HYPERLINK("https://www.google.es","Google")</f>
         <v>Google</v>
       </c>
@@ -934,15 +910,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
         <v>125000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -950,17 +926,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
         <f>ABS(PMT(B3/12,B2*12,B1))</f>
         <v>560.77091759577513</v>
       </c>
@@ -982,15 +958,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1500</v>
